--- a/form.excel/sampleForm2.xlsx
+++ b/form.excel/sampleForm2.xlsx
@@ -178,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -402,11 +402,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,25 +425,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -456,22 +458,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,76 +482,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,27 +518,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,26 +551,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,547 +955,567 @@
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1">
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="65" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="E2" s="12" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="C6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="18.75">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A13" s="33">
+      <c r="A13" s="57">
         <v>1</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="5"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="5"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="31" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="18.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A20" s="33">
+      <c r="A20" s="57">
         <v>2</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="5"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="31" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="19"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="57">
         <v>3</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="9" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="6"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="31" t="s">
+      <c r="E31" s="56"/>
+      <c r="F31" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="18.75">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="57" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="29"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="30"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="57" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="62" t="s">
+      <c r="E37" s="34"/>
+      <c r="F37" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="29"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="30"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1"/>
     <row r="41" spans="1:9" ht="15" customHeight="1"/>
@@ -1476,6 +1525,64 @@
     <row r="46" spans="1:9" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:C36"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:H39"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:H36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="G22:H22"/>
@@ -1492,64 +1599,6 @@
     <mergeCell ref="B9:C11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:H39"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:C36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
